--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{BE903521-01CA-4607-AA12-F2FBD54651DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FA977730-F28A-4461-B2A1-262F14A4ABD6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{BE903521-01CA-4607-AA12-F2FBD54651DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA3BD8B2-8AB9-4EC8-9BC8-530F47D298EE}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,7 @@
     <t>Pre-Purchase Entry Shipping</t>
   </si>
   <si>
-    <t>Pre-Purchase Entry Renewal Plan</t>
+    <t>Pre-Purchase Entry Renewal Plan</t>
   </si>
   <si>
     <t>Pre-Purchase Entry Promotion 1</t>
@@ -966,6 +966,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -976,12 +982,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1300,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1666,26 +1666,26 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="14" t="s">
@@ -2244,12 +2244,12 @@
       <c r="D61" s="15"/>
     </row>
     <row r="62" spans="1:4" ht="15.75">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="21" t="s">
@@ -2662,15 +2662,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2835,14 +2826,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
 </file>
--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/deluxe20off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/deluxe20off.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23621"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23627"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{BE903521-01CA-4607-AA12-F2FBD54651DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AA3BD8B2-8AB9-4EC8-9BC8-530F47D298EE}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{BE903521-01CA-4607-AA12-F2FBD54651DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8132A712-8D26-4EC8-B425-2DDDF8F3D5A8}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
   <si>
     <t>Vanity URL</t>
   </si>
@@ -86,69 +86,6 @@
   </si>
   <si>
     <t>lf_noprp_mb5deluxe20off</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-spring</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb5deluxe20offspring</t>
-  </si>
-  <si>
-    <t>mb5deluxe20offspring</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-mom</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb5deluxe20offmom</t>
-  </si>
-  <si>
-    <t>mb5deluxe20offmom</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-anniversary</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb5deluxe20offanniversary</t>
-  </si>
-  <si>
-    <t>mb5deluxe20offanniversary</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-memorialday</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=mb5deluxe20offmemorial</t>
-  </si>
-  <si>
-    <t>mb5deluxe20offmemorial</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-summer</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=lf_noprep_mb5deluxe20offsummer</t>
-  </si>
-  <si>
-    <t>lf_noprep_mb5deluxe20offsummer</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-july4th</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=lf_noprep_mb5deluxe20off4jul</t>
-  </si>
-  <si>
-    <t>lf_noprep_mb5deluxe20off4jul</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/campaign/mb5-deluxe20off-laborday</t>
-  </si>
-  <si>
-    <t>https://www.meaningfulbeauty.com/?src=lf_noprep_mb5deluxe20offlabor</t>
-  </si>
-  <si>
-    <t>lf_noprep_mb5deluxe20offlabor</t>
   </si>
   <si>
     <t>Kit</t>
@@ -1298,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1406,854 +1343,707 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" ht="31.5">
+      <c r="A8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="6" t="s">
+      <c r="D8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="29" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="B9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="6" t="s">
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="D9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="31" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="6" t="s">
+      <c r="B10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="C10" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
+      <c r="A12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="6" t="s">
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
+      <c r="A13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
+      <c r="A14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="6" t="s">
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
+      <c r="A15" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B15" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C15" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="6" t="s">
+      <c r="D15" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="29" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="C16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="34"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="31.5">
-      <c r="A15" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="13" t="s">
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="B17" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="C17" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75">
-      <c r="A18" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
+      <c r="C18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="15">
-        <v>1</v>
-      </c>
-      <c r="C19" s="15">
-        <v>2</v>
-      </c>
-      <c r="D19" s="15">
-        <v>3</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15"/>
     </row>
     <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>10</v>
+        <v>51</v>
+      </c>
+      <c r="B21" s="17">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="157.5">
+      <c r="A23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B23" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="15" t="s">
+    </row>
+    <row r="24" spans="1:4" ht="150">
+      <c r="A24" s="14" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="15" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="47.25">
+      <c r="A25" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75">
-      <c r="A24" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="C25" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75">
-      <c r="A25" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="17">
-        <v>0</v>
-      </c>
-      <c r="C28" s="17">
-        <v>0</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="D31" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="15" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="157.5">
-      <c r="A30" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="150">
-      <c r="A31" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="47.25">
-      <c r="A32" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75">
+        <v>80</v>
+      </c>
+      <c r="B33" s="19">
+        <v>55.96</v>
+      </c>
+      <c r="C33" s="17">
+        <v>55.96</v>
+      </c>
+      <c r="D33" s="17">
+        <v>49.95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="B34" s="17">
+        <v>0</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="B35" s="15">
+        <v>3</v>
+      </c>
+      <c r="C35" s="15">
+        <v>3</v>
+      </c>
+      <c r="D35" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="157.5">
+      <c r="A37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="150">
+      <c r="A38" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" ht="15.75">
-      <c r="A37" s="14" t="s">
+      <c r="D38" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75">
-      <c r="A38" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75">
+        <v>93</v>
+      </c>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="20"/>
+    </row>
+    <row r="40" spans="1:4" ht="47.25">
       <c r="A40" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="19">
-        <v>55.96</v>
-      </c>
-      <c r="C40" s="17">
-        <v>55.96</v>
-      </c>
-      <c r="D40" s="17">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="17">
-        <v>0</v>
-      </c>
-      <c r="C41" s="17">
-        <v>0</v>
-      </c>
-      <c r="D41" s="17">
-        <v>0</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="15">
-        <v>3</v>
-      </c>
-      <c r="C42" s="15">
-        <v>3</v>
-      </c>
-      <c r="D42" s="15">
-        <v>3</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
     </row>
     <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="14" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="157.5">
+        <v>98</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="150">
+        <v>66</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75">
+        <v>68</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="20"/>
-    </row>
-    <row r="47" spans="1:4" ht="47.25">
+        <v>101</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
+        <v>104</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+        <v>108</v>
+      </c>
+      <c r="B49" s="15">
+        <v>3</v>
+      </c>
+      <c r="C49" s="15">
+        <v>3</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>119</v>
+        <v>109</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="15"/>
+        <v>112</v>
+      </c>
+      <c r="B51" s="17">
+        <v>69.95</v>
+      </c>
+      <c r="C51" s="17">
+        <v>69.95</v>
+      </c>
+      <c r="D51" s="17">
+        <v>49.95</v>
+      </c>
     </row>
     <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1">
+        <v>113</v>
+      </c>
+      <c r="B52" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="C52" s="17">
+        <v>4.99</v>
+      </c>
+      <c r="D52" s="17">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A61" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
+      <c r="A62" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75">
-      <c r="A55" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75">
-      <c r="A56" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="B56" s="15">
-        <v>3</v>
-      </c>
-      <c r="C56" s="15">
-        <v>3</v>
-      </c>
-      <c r="D56" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75">
-      <c r="A57" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75">
-      <c r="A58" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="17">
-        <v>69.95</v>
-      </c>
-      <c r="C58" s="17">
-        <v>69.95</v>
-      </c>
-      <c r="D58" s="17">
-        <v>49.95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75">
-      <c r="A59" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="17">
-        <v>4.99</v>
-      </c>
-      <c r="C59" s="17">
-        <v>4.99</v>
-      </c>
-      <c r="D59" s="17">
-        <v>3.99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75">
-      <c r="A60" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75">
-      <c r="A61" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75">
-      <c r="A62" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="21" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -2261,23 +2051,23 @@
     </row>
     <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="21" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B64" s="22"/>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
     </row>
-    <row r="65" spans="1:4" ht="15.75">
+    <row r="65" spans="1:4" ht="15.75" customHeight="1">
       <c r="A65" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="22"/>
+        <v>127</v>
+      </c>
+      <c r="B65" s="24"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -2285,15 +2075,15 @@
     </row>
     <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="21" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B67" s="22"/>
       <c r="C67" s="22"/>
       <c r="D67" s="22"/>
     </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1">
+    <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="21" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B68" s="22"/>
       <c r="C68" s="22"/>
@@ -2301,7 +2091,7 @@
     </row>
     <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="21" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -2309,7 +2099,7 @@
     </row>
     <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="21" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
@@ -2317,23 +2107,23 @@
     </row>
     <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="21" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1">
+    <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="24"/>
+        <v>134</v>
+      </c>
+      <c r="B72" s="22"/>
       <c r="C72" s="22"/>
-      <c r="D72" s="24"/>
+      <c r="D72" s="22"/>
     </row>
     <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="21" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -2341,7 +2131,7 @@
     </row>
     <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="21" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -2349,7 +2139,7 @@
     </row>
     <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="21" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -2357,7 +2147,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="21" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -2365,7 +2155,7 @@
     </row>
     <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="21" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -2373,7 +2163,7 @@
     </row>
     <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="21" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -2381,15 +2171,15 @@
     </row>
     <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="21" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -2397,7 +2187,7 @@
     </row>
     <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="21" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B81" s="22"/>
       <c r="C81" s="22"/>
@@ -2405,7 +2195,7 @@
     </row>
     <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="21" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B82" s="22"/>
       <c r="C82" s="22"/>
@@ -2413,7 +2203,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="21" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="B83" s="22"/>
       <c r="C83" s="22"/>
@@ -2421,7 +2211,7 @@
     </row>
     <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="21" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="B84" s="22"/>
       <c r="C84" s="22"/>
@@ -2429,7 +2219,7 @@
     </row>
     <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="21" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B85" s="22"/>
       <c r="C85" s="22"/>
@@ -2437,15 +2227,15 @@
     </row>
     <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="24"/>
-      <c r="D86" s="24"/>
+        <v>142</v>
+      </c>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="21" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B87" s="22"/>
       <c r="C87" s="22"/>
@@ -2453,7 +2243,7 @@
     </row>
     <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="21" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="B88" s="22"/>
       <c r="C88" s="22"/>
@@ -2461,7 +2251,7 @@
     </row>
     <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B89" s="22"/>
       <c r="C89" s="22"/>
@@ -2469,7 +2259,7 @@
     </row>
     <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B90" s="22"/>
       <c r="C90" s="22"/>
@@ -2477,7 +2267,7 @@
     </row>
     <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="21" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B91" s="22"/>
       <c r="C91" s="22"/>
@@ -2485,7 +2275,7 @@
     </row>
     <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="21" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="B92" s="22"/>
       <c r="C92" s="22"/>
@@ -2493,7 +2283,7 @@
     </row>
     <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="21" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="B93" s="22"/>
       <c r="C93" s="22"/>
@@ -2501,7 +2291,7 @@
     </row>
     <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B94" s="22"/>
       <c r="C94" s="22"/>
@@ -2509,7 +2299,7 @@
     </row>
     <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="21" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B95" s="22"/>
       <c r="C95" s="22"/>
@@ -2517,7 +2307,7 @@
     </row>
     <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="21" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B96" s="22"/>
       <c r="C96" s="22"/>
@@ -2525,23 +2315,23 @@
     </row>
     <row r="97" spans="1:5" ht="15.75">
       <c r="A97" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+        <v>143</v>
+      </c>
+      <c r="B97" s="24"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
     </row>
     <row r="98" spans="1:5" ht="15.75">
       <c r="A98" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+        <v>113</v>
+      </c>
+      <c r="B98" s="24"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
     </row>
     <row r="99" spans="1:5" ht="15.75">
       <c r="A99" s="21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B99" s="22"/>
       <c r="C99" s="22"/>
@@ -2549,107 +2339,37 @@
     </row>
     <row r="100" spans="1:5" ht="15.75">
       <c r="A100" s="21" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B100" s="22"/>
       <c r="C100" s="22"/>
       <c r="D100" s="22"/>
     </row>
     <row r="101" spans="1:5" ht="15.75">
-      <c r="A101" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="38"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
     </row>
     <row r="102" spans="1:5" ht="15.75">
-      <c r="A102" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.75">
-      <c r="A103" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="B103" s="22"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.75">
-      <c r="A104" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" s="24"/>
-      <c r="C104" s="24"/>
-      <c r="D104" s="24"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.75">
-      <c r="A105" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B105" s="24"/>
-      <c r="C105" s="24"/>
-      <c r="D105" s="24"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.75">
-      <c r="A106" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B106" s="22"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="22"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.75">
-      <c r="A107" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="B107" s="22"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.75">
-      <c r="A108" s="25"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.75">
-      <c r="A109" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
+      <c r="A102" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{A4A9A834-8821-4092-B294-07E90402B458}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A1E74EFF-49C3-45C0-9711-28DDFA788C8D}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4BB1351F-1C21-4E91-A25F-9029EFAF8ED7}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{0A883D5F-8B06-473E-A9EE-8FACACEAFC9D}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{291FC96E-4075-4504-A2F7-1A289B5D67C3}"/>
-    <hyperlink ref="A5" r:id="rId6" xr:uid="{605C1E97-68D7-4CCE-A4FD-32B1E8191C74}"/>
-    <hyperlink ref="A6" r:id="rId7" xr:uid="{192F94A1-067E-442F-B082-9E2A8D82137C}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{4E60213E-18CC-4EC9-BF0F-88FC5A2D0917}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{CC16DB96-D890-4F03-8866-533E3378FF3F}"/>
-    <hyperlink ref="A7" r:id="rId10" xr:uid="{E55EDF72-E685-4EB1-B039-7B801DE76888}"/>
-    <hyperlink ref="A8" r:id="rId11" xr:uid="{63BBD2AA-6998-4813-B9FF-B2353F6BA425}"/>
-    <hyperlink ref="B8" r:id="rId12" xr:uid="{DF02AA94-7E98-429F-AD9F-6DF865A769B9}"/>
-    <hyperlink ref="A9" r:id="rId13" xr:uid="{22B66370-3107-48C1-B17C-BE3CDB53B487}"/>
-    <hyperlink ref="B9" r:id="rId14" xr:uid="{579F32A8-CEA8-454B-8A0F-E09113F0D4DB}"/>
-    <hyperlink ref="A10" r:id="rId15" xr:uid="{A93D4376-A596-4904-89EC-BADDF24636A0}"/>
-    <hyperlink ref="B10" r:id="rId16" xr:uid="{9EB00BAB-2399-42CB-AD80-9A6FD302DAEC}"/>
-    <hyperlink ref="A2" r:id="rId17" xr:uid="{671B3688-AC70-4A48-8FA3-A311B9C2BFD0}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{671B3688-AC70-4A48-8FA3-A311B9C2BFD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2662,6 +2382,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2826,23 +2555,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86F5D631-A150-4668-A8EB-947DB3A2A4E8}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1889725-2C06-4DD3-B199-3839718C49C5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A187F77C-E3B1-4B81-88C3-5890496FD075}"/>
 </file>